--- a/out_booth_247/suspect_summary.xlsx
+++ b/out_booth_247/suspect_summary.xlsx
@@ -708,10 +708,18 @@
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Serial number 3 does not have any valid parent or spouse relationship with other voters in house number 1 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -774,10 +782,18 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Serial number 4 does not have any valid parent or spouse relationship with other voters in house number 1 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1038,10 +1054,18 @@
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Serial number 8 does not have any valid parent or spouse relationship with other voters in house number 1 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1392,16 +1416,16 @@
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>House number 18 on street '1-Annur Street Ward No-10' contains 14 registered voters including serial number 13, which exceeds the household size threshold.</t>
+          <t>Serial number 13 does not have any valid parent or spouse relationship with other voters in house number 18 on street '1-Annur Street Ward No-10'. | House number 18 on street '1-Annur Street Ward No-10' contains 14 registered voters including serial number 13, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -2282,10 +2306,18 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Serial number 26 does not have any valid parent or spouse relationship with other voters in house number 1E on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2348,10 +2380,18 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Serial number 27 does not have any valid parent or spouse relationship with other voters in house number 1E on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -2892,10 +2932,18 @@
         </is>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Serial number 35 does not have any valid parent or spouse relationship with other voters in house number 2 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -2958,10 +3006,18 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Serial number 36 does not have any valid parent or spouse relationship with other voters in house number 2 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3798,18 +3854,10 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>Serial number 48 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -4214,12 +4262,12 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Serial number 54 is the only voter listed under house number 24-2 on street '1-Annur Street Ward No-10' in booth 247. | Serial number 54 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 54 does not have any valid parent or spouse relationship with other voters in house number 24-2 on street '1-Annur Street Ward No-10'. | Serial number 54 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -4358,18 +4406,10 @@
         </is>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>Serial number 56 is the only voter listed under house number 24/2 on street '1-Annur Street Ward No-10' in booth 247.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8442,10 +8482,18 @@
         </is>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>Serial number 114 does not have any valid parent or spouse relationship with other voters in house number 6E on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
@@ -8508,10 +8556,18 @@
         </is>
       </c>
       <c r="N116" t="n">
-        <v>0</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>Serial number 115 does not have any valid parent or spouse relationship with other voters in house number 6E on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -11226,10 +11282,18 @@
         </is>
       </c>
       <c r="N155" t="n">
-        <v>0</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>Serial number 154 does not have any valid parent or spouse relationship with other voters in house number 12A/80 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
@@ -11292,10 +11356,18 @@
         </is>
       </c>
       <c r="N156" t="n">
-        <v>0</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>Serial number 155 does not have any valid parent or spouse relationship with other voters in house number 12A/80 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
@@ -11506,18 +11578,10 @@
         </is>
       </c>
       <c r="N159" t="n">
-        <v>1</v>
-      </c>
-      <c r="O159" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P159" t="inlineStr">
-        <is>
-          <t>Serial number 158 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="n">
@@ -11720,16 +11784,16 @@
         </is>
       </c>
       <c r="N162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>Serial number 161 is the only voter listed under house number 13-70 on street '1-Annur Street Ward No-10' in booth 247. | Serial number 161 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 161 is the only voter listed under house number 13-70 on street '1-Annur Street Ward No-10' in booth 247.</t>
         </is>
       </c>
     </row>
@@ -12502,10 +12566,18 @@
         </is>
       </c>
       <c r="N173" t="n">
-        <v>0</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>Serial number 172 does not have any valid parent or spouse relationship with other voters in house number 14-1 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
@@ -12568,18 +12640,10 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>1</v>
-      </c>
-      <c r="O174" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P174" t="inlineStr">
-        <is>
-          <t>Serial number 173 is the only voter listed under house number 14/1 on street '1-Annur Street Ward No-10' in booth 247.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="n">
@@ -13498,10 +13562,18 @@
         </is>
       </c>
       <c r="N187" t="n">
-        <v>0</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>Serial number 186 does not have any valid parent or spouse relationship with other voters in house number 16 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
@@ -14248,16 +14320,16 @@
         </is>
       </c>
       <c r="N198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P198" t="inlineStr">
         <is>
-          <t>House number 18 on street '1-Annur Street Ward No-10' contains 14 registered voters including serial number 197, which exceeds the household size threshold.</t>
+          <t>Serial number 197 does not have any valid parent or spouse relationship with other voters in house number 18 on street '1-Annur Street Ward No-10'. | House number 18 on street '1-Annur Street Ward No-10' contains 14 registered voters including serial number 197, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -14396,16 +14468,16 @@
         </is>
       </c>
       <c r="N200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>House number 18 on street '1-Annur Street Ward No-10' contains 14 registered voters including serial number 199, which exceeds the household size threshold.</t>
+          <t>Serial number 199 does not have any valid parent or spouse relationship with other voters in house number 18 on street '1-Annur Street Ward No-10'. | House number 18 on street '1-Annur Street Ward No-10' contains 14 registered voters including serial number 199, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -14766,16 +14838,16 @@
         </is>
       </c>
       <c r="N205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>House number 18 on street '1-Annur Street Ward No-10' contains 14 registered voters including serial number 204, which exceeds the household size threshold.</t>
+          <t>Serial number 204 does not have any valid parent or spouse relationship with other voters in house number 18 on street '1-Annur Street Ward No-10'. | House number 18 on street '1-Annur Street Ward No-10' contains 14 registered voters including serial number 204, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -14988,16 +15060,16 @@
         </is>
       </c>
       <c r="N208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>House number 18 on street '1-Annur Street Ward No-10' contains 14 registered voters including serial number 207, which exceeds the household size threshold.</t>
+          <t>Serial number 207 does not have any valid parent or spouse relationship with other voters in house number 18 on street '1-Annur Street Ward No-10'. | House number 18 on street '1-Annur Street Ward No-10' contains 14 registered voters including serial number 207, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -15210,16 +15282,16 @@
         </is>
       </c>
       <c r="N211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O211" t="inlineStr">
         <is>
-          <t>BULK_10_PLUS</t>
+          <t>ADOPTED_NO_RELATIVE, BULK_10_PLUS</t>
         </is>
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>House number 18 on street '1-Annur Street Ward No-10' contains 14 registered voters including serial number 210, which exceeds the household size threshold.</t>
+          <t>Serial number 210 does not have any valid parent or spouse relationship with other voters in house number 18 on street '1-Annur Street Ward No-10'. | House number 18 on street '1-Annur Street Ward No-10' contains 14 registered voters including serial number 210, which exceeds the household size threshold.</t>
         </is>
       </c>
     </row>
@@ -15284,10 +15356,18 @@
         </is>
       </c>
       <c r="N212" t="n">
-        <v>0</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>Serial number 211 does not have any valid parent or spouse relationship with other voters in house number 20 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -15786,10 +15866,18 @@
         </is>
       </c>
       <c r="N219" t="n">
-        <v>0</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>Serial number 218 does not have any valid parent or spouse relationship with other voters in house number 20 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
@@ -15852,10 +15940,18 @@
         </is>
       </c>
       <c r="N220" t="n">
-        <v>0</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>Serial number 219 does not have any valid parent or spouse relationship with other voters in house number 21 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
@@ -15918,10 +16014,18 @@
         </is>
       </c>
       <c r="N221" t="n">
-        <v>0</v>
-      </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>Serial number 220 does not have any valid parent or spouse relationship with other voters in house number 21 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
@@ -16758,10 +16862,18 @@
         </is>
       </c>
       <c r="N233" t="n">
-        <v>0</v>
-      </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>Serial number 232 does not have any valid parent or spouse relationship with other voters in house number 24 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
@@ -20676,10 +20788,18 @@
         </is>
       </c>
       <c r="N288" t="n">
-        <v>0</v>
-      </c>
-      <c r="O288" t="inlineStr"/>
-      <c r="P288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>Serial number 287 does not have any valid parent or spouse relationship with other voters in house number 32 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
@@ -21170,16 +21290,16 @@
         </is>
       </c>
       <c r="N295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P295" t="inlineStr">
         <is>
-          <t>Serial number 294 is the only voter listed under house number 334 on street '1-Annur Street Ward No-10' in booth 247. | Serial number 294 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 294 is the only voter listed under house number 334 on street '1-Annur Street Ward No-10' in booth 247.</t>
         </is>
       </c>
     </row>
@@ -21540,10 +21660,18 @@
         </is>
       </c>
       <c r="N300" t="n">
-        <v>0</v>
-      </c>
-      <c r="O300" t="inlineStr"/>
-      <c r="P300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>Serial number 299 does not have any valid parent or spouse relationship with other voters in house number 45 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
@@ -21738,10 +21866,18 @@
         </is>
       </c>
       <c r="N303" t="n">
-        <v>0</v>
-      </c>
-      <c r="O303" t="inlineStr"/>
-      <c r="P303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P303" t="inlineStr">
+        <is>
+          <t>Serial number 302 does not have any valid parent or spouse relationship with other voters in house number 45 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
@@ -22158,10 +22294,18 @@
         </is>
       </c>
       <c r="N309" t="n">
-        <v>0</v>
-      </c>
-      <c r="O309" t="inlineStr"/>
-      <c r="P309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>Serial number 308 does not have any valid parent or spouse relationship with other voters in house number 49 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
@@ -22562,18 +22706,10 @@
         </is>
       </c>
       <c r="N315" t="n">
-        <v>1</v>
-      </c>
-      <c r="O315" t="inlineStr">
-        <is>
-          <t>ADOPTED_NO_RELATIVE</t>
-        </is>
-      </c>
-      <c r="P315" t="inlineStr">
-        <is>
-          <t>Serial number 314 does not have any valid parent or spouse relationship with other voters in house number 49-6D on street '1-Annur Street Ward No-10'.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O315" t="inlineStr"/>
+      <c r="P315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -22714,12 +22850,12 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P317" t="inlineStr">
         <is>
-          <t>Serial number 316 is the only voter listed under house number 49/6D on street '1-Annur Street Ward No-10' in booth 247.</t>
+          <t>Serial number 316 does not have any valid parent or spouse relationship with other voters in house number 49/6D on street '1-Annur Street Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -23854,10 +23990,18 @@
         </is>
       </c>
       <c r="N333" t="n">
-        <v>0</v>
-      </c>
-      <c r="O333" t="inlineStr"/>
-      <c r="P333" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P333" t="inlineStr">
+        <is>
+          <t>Serial number 332 does not have any valid parent or spouse relationship with other voters in house number 64 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -23994,10 +24138,18 @@
         </is>
       </c>
       <c r="N335" t="n">
-        <v>0</v>
-      </c>
-      <c r="O335" t="inlineStr"/>
-      <c r="P335" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P335" t="inlineStr">
+        <is>
+          <t>Serial number 334 does not have any valid parent or spouse relationship with other voters in house number 64 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -24192,10 +24344,18 @@
         </is>
       </c>
       <c r="N338" t="n">
-        <v>0</v>
-      </c>
-      <c r="O338" t="inlineStr"/>
-      <c r="P338" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P338" t="inlineStr">
+        <is>
+          <t>Serial number 337 does not have any valid parent or spouse relationship with other voters in house number 64 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -26248,16 +26408,16 @@
         </is>
       </c>
       <c r="N366" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O366" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P366" t="inlineStr">
         <is>
-          <t>Serial number 365 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 365 does not have any valid parent or spouse relationship with other voters in house number 49 on street '1-Annur Street Ward No-10'. | Serial number 365 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -26322,10 +26482,18 @@
         </is>
       </c>
       <c r="N367" t="n">
-        <v>0</v>
-      </c>
-      <c r="O367" t="inlineStr"/>
-      <c r="P367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O367" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P367" t="inlineStr">
+        <is>
+          <t>Serial number 366 does not have any valid parent or spouse relationship with other voters in house number 69 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -26462,10 +26630,18 @@
         </is>
       </c>
       <c r="N369" t="n">
-        <v>0</v>
-      </c>
-      <c r="O369" t="inlineStr"/>
-      <c r="P369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O369" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P369" t="inlineStr">
+        <is>
+          <t>Serial number 368 does not have any valid parent or spouse relationship with other voters in house number 69 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -26858,10 +27034,18 @@
         </is>
       </c>
       <c r="N375" t="n">
-        <v>0</v>
-      </c>
-      <c r="O375" t="inlineStr"/>
-      <c r="P375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O375" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P375" t="inlineStr">
+        <is>
+          <t>Serial number 374 does not have any valid parent or spouse relationship with other voters in house number 71 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -29682,10 +29866,18 @@
         </is>
       </c>
       <c r="N415" t="n">
-        <v>0</v>
-      </c>
-      <c r="O415" t="inlineStr"/>
-      <c r="P415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P415" t="inlineStr">
+        <is>
+          <t>Serial number 414 does not have any valid parent or spouse relationship with other voters in house number 85 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" t="n">
@@ -29752,12 +29944,12 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ADOPTED_NO_RELATIVE</t>
         </is>
       </c>
       <c r="P416" t="inlineStr">
         <is>
-          <t>Serial number 415 is the only voter listed under house number 85-2 on street '1-Annur Street Ward No-10' in booth 247.</t>
+          <t>Serial number 415 does not have any valid parent or spouse relationship with other voters in house number 85-2 on street '1-Annur Street Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -29822,18 +30014,10 @@
         </is>
       </c>
       <c r="N417" t="n">
-        <v>1</v>
-      </c>
-      <c r="O417" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P417" t="inlineStr">
-        <is>
-          <t>Serial number 416 is the only voter listed under house number 85/2 on street '1-Annur Street Ward No-10' in booth 247.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O417" t="inlineStr"/>
+      <c r="P417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="n">
@@ -31328,10 +31512,18 @@
         </is>
       </c>
       <c r="N438" t="n">
-        <v>0</v>
-      </c>
-      <c r="O438" t="inlineStr"/>
-      <c r="P438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O438" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P438" t="inlineStr">
+        <is>
+          <t>Serial number 437 does not have any valid parent or spouse relationship with other voters in house number 85 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="439">
       <c r="A439" t="n">
@@ -31468,10 +31660,18 @@
         </is>
       </c>
       <c r="N440" t="n">
-        <v>0</v>
-      </c>
-      <c r="O440" t="inlineStr"/>
-      <c r="P440" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O440" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P440" t="inlineStr">
+        <is>
+          <t>Serial number 439 does not have any valid parent or spouse relationship with other voters in house number 85G on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" t="n">
@@ -31534,10 +31734,18 @@
         </is>
       </c>
       <c r="N441" t="n">
-        <v>0</v>
-      </c>
-      <c r="O441" t="inlineStr"/>
-      <c r="P441" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O441" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P441" t="inlineStr">
+        <is>
+          <t>Serial number 440 does not have any valid parent or spouse relationship with other voters in house number 85G on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="442">
       <c r="A442" t="n">
@@ -31600,10 +31808,18 @@
         </is>
       </c>
       <c r="N442" t="n">
-        <v>0</v>
-      </c>
-      <c r="O442" t="inlineStr"/>
-      <c r="P442" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O442" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P442" t="inlineStr">
+        <is>
+          <t>Serial number 441 does not have any valid parent or spouse relationship with other voters in house number 85G on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" t="n">
@@ -31740,10 +31956,18 @@
         </is>
       </c>
       <c r="N444" t="n">
-        <v>0</v>
-      </c>
-      <c r="O444" t="inlineStr"/>
-      <c r="P444" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O444" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P444" t="inlineStr">
+        <is>
+          <t>Serial number 443 does not have any valid parent or spouse relationship with other voters in house number 85 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" t="n">
@@ -31880,10 +32104,18 @@
         </is>
       </c>
       <c r="N446" t="n">
-        <v>0</v>
-      </c>
-      <c r="O446" t="inlineStr"/>
-      <c r="P446" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O446" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P446" t="inlineStr">
+        <is>
+          <t>Serial number 445 does not have any valid parent or spouse relationship with other voters in house number 87 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" t="n">
@@ -31946,10 +32178,18 @@
         </is>
       </c>
       <c r="N447" t="n">
-        <v>0</v>
-      </c>
-      <c r="O447" t="inlineStr"/>
-      <c r="P447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O447" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P447" t="inlineStr">
+        <is>
+          <t>Serial number 446 does not have any valid parent or spouse relationship with other voters in house number 87 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="448">
       <c r="A448" t="n">
@@ -32012,10 +32252,18 @@
         </is>
       </c>
       <c r="N448" t="n">
-        <v>0</v>
-      </c>
-      <c r="O448" t="inlineStr"/>
-      <c r="P448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O448" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P448" t="inlineStr">
+        <is>
+          <t>Serial number 447 does not have any valid parent or spouse relationship with other voters in house number 88 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" t="n">
@@ -32078,10 +32326,18 @@
         </is>
       </c>
       <c r="N449" t="n">
-        <v>0</v>
-      </c>
-      <c r="O449" t="inlineStr"/>
-      <c r="P449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O449" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P449" t="inlineStr">
+        <is>
+          <t>Serial number 448 does not have any valid parent or spouse relationship with other voters in house number 88 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" t="n">
@@ -32144,10 +32400,18 @@
         </is>
       </c>
       <c r="N450" t="n">
-        <v>0</v>
-      </c>
-      <c r="O450" t="inlineStr"/>
-      <c r="P450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O450" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P450" t="inlineStr">
+        <is>
+          <t>Serial number 449 does not have any valid parent or spouse relationship with other voters in house number 88 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="451">
       <c r="A451" t="n">
@@ -32622,10 +32886,18 @@
         </is>
       </c>
       <c r="N457" t="n">
-        <v>0</v>
-      </c>
-      <c r="O457" t="inlineStr"/>
-      <c r="P457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O457" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P457" t="inlineStr">
+        <is>
+          <t>Serial number 456 does not have any valid parent or spouse relationship with other voters in house number 91 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="458">
       <c r="A458" t="n">
@@ -32688,10 +32960,18 @@
         </is>
       </c>
       <c r="N458" t="n">
-        <v>0</v>
-      </c>
-      <c r="O458" t="inlineStr"/>
-      <c r="P458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O458" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P458" t="inlineStr">
+        <is>
+          <t>Serial number 457 does not have any valid parent or spouse relationship with other voters in house number 91 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" t="n">
@@ -33282,18 +33562,10 @@
         </is>
       </c>
       <c r="N467" t="n">
-        <v>1</v>
-      </c>
-      <c r="O467" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P467" t="inlineStr">
-        <is>
-          <t>Serial number 466 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O467" t="inlineStr"/>
+      <c r="P467" t="inlineStr"/>
     </row>
     <row r="468">
       <c r="A468" t="n">
@@ -33356,10 +33628,18 @@
         </is>
       </c>
       <c r="N468" t="n">
-        <v>0</v>
-      </c>
-      <c r="O468" t="inlineStr"/>
-      <c r="P468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O468" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P468" t="inlineStr">
+        <is>
+          <t>Serial number 467 does not have any valid parent or spouse relationship with other voters in house number 94 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="469">
       <c r="A469" t="n">
@@ -33488,10 +33768,18 @@
         </is>
       </c>
       <c r="N470" t="n">
-        <v>0</v>
-      </c>
-      <c r="O470" t="inlineStr"/>
-      <c r="P470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O470" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P470" t="inlineStr">
+        <is>
+          <t>Serial number 469 does not have any valid parent or spouse relationship with other voters in house number 97 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" t="n">
@@ -35820,10 +36108,18 @@
         </is>
       </c>
       <c r="N504" t="n">
-        <v>0</v>
-      </c>
-      <c r="O504" t="inlineStr"/>
-      <c r="P504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O504" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P504" t="inlineStr">
+        <is>
+          <t>Serial number 503 does not have any valid parent or spouse relationship with other voters in house number 114 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="505">
       <c r="A505" t="n">
@@ -36562,10 +36858,18 @@
         </is>
       </c>
       <c r="N515" t="n">
-        <v>0</v>
-      </c>
-      <c r="O515" t="inlineStr"/>
-      <c r="P515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O515" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P515" t="inlineStr">
+        <is>
+          <t>Serial number 514 does not have any valid parent or spouse relationship with other voters in house number 122 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" t="n">
@@ -36850,16 +37154,16 @@
         </is>
       </c>
       <c r="N519" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P519" t="inlineStr">
         <is>
-          <t>Serial number 518 is the only voter listed under house number 131 on street '1-Annur Street Ward No-10' in booth 247. | Serial number 518 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 518 is the only voter listed under house number 131 on street '1-Annur Street Ward No-10' in booth 247.</t>
         </is>
       </c>
     </row>
@@ -38794,16 +39098,16 @@
         </is>
       </c>
       <c r="N547" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O547" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P547" t="inlineStr">
         <is>
-          <t>Serial number 546 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 546 does not have any valid parent or spouse relationship with other voters in house number 146 on street '1-Annur Street Ward No-10'. | Serial number 546 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
@@ -39000,10 +39304,18 @@
         </is>
       </c>
       <c r="N550" t="n">
-        <v>0</v>
-      </c>
-      <c r="O550" t="inlineStr"/>
-      <c r="P550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O550" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P550" t="inlineStr">
+        <is>
+          <t>Serial number 549 does not have any valid parent or spouse relationship with other voters in house number 146 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" t="n">
@@ -40086,16 +40398,16 @@
         </is>
       </c>
       <c r="N565" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O565" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P565" t="inlineStr">
         <is>
-          <t>Serial number 564 is the only voter listed under house number 251 on street '1-Annur Street Ward No-10' in booth 247. | Serial number 564 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 564 is the only voter listed under house number 251 on street '1-Annur Street Ward No-10' in booth 247.</t>
         </is>
       </c>
     </row>
@@ -40736,10 +41048,18 @@
         </is>
       </c>
       <c r="N574" t="n">
-        <v>0</v>
-      </c>
-      <c r="O574" t="inlineStr"/>
-      <c r="P574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O574" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P574" t="inlineStr">
+        <is>
+          <t>Serial number 573 does not have any valid parent or spouse relationship with other voters in house number 790-3 on street '1-Annur Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="n">
@@ -41312,16 +41632,16 @@
         </is>
       </c>
       <c r="N582" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O582" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, INVALID_HOUSE_NO</t>
+          <t>INVALID_HOUSE_NO</t>
         </is>
       </c>
       <c r="P582" t="inlineStr">
         <is>
-          <t>Serial number 581 was flagged due to rule: INVALID_EPIC_ID. | House number 'Na' does not contain any numeric digits.</t>
+          <t>House number 'Na' does not contain any numeric digits.</t>
         </is>
       </c>
     </row>
@@ -41526,10 +41846,18 @@
         </is>
       </c>
       <c r="N585" t="n">
-        <v>0</v>
-      </c>
-      <c r="O585" t="inlineStr"/>
-      <c r="P585" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O585" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P585" t="inlineStr">
+        <is>
+          <t>Serial number 584 does not have any valid parent or spouse relationship with other voters in house number 1 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" t="n">
@@ -43798,10 +44126,18 @@
         </is>
       </c>
       <c r="N617" t="n">
-        <v>0</v>
-      </c>
-      <c r="O617" t="inlineStr"/>
-      <c r="P617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O617" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P617" t="inlineStr">
+        <is>
+          <t>Serial number 616 does not have any valid parent or spouse relationship with other voters in house number 7 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="n">
@@ -45198,18 +45534,10 @@
         </is>
       </c>
       <c r="N637" t="n">
-        <v>1</v>
-      </c>
-      <c r="O637" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P637" t="inlineStr">
-        <is>
-          <t>Serial number 636 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O637" t="inlineStr"/>
+      <c r="P637" t="inlineStr"/>
     </row>
     <row r="638">
       <c r="A638" t="n">
@@ -45338,10 +45666,18 @@
         </is>
       </c>
       <c r="N639" t="n">
-        <v>0</v>
-      </c>
-      <c r="O639" t="inlineStr"/>
-      <c r="P639" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O639" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P639" t="inlineStr">
+        <is>
+          <t>Serial number 638 does not have any valid parent or spouse relationship with other voters in house number 12 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="640">
       <c r="A640" t="n">
@@ -46030,18 +46366,10 @@
         </is>
       </c>
       <c r="N649" t="n">
-        <v>1</v>
-      </c>
-      <c r="O649" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P649" t="inlineStr">
-        <is>
-          <t>Serial number 648 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O649" t="inlineStr"/>
+      <c r="P649" t="inlineStr"/>
     </row>
     <row r="650">
       <c r="A650" t="n">
@@ -46178,10 +46506,18 @@
         </is>
       </c>
       <c r="N651" t="n">
-        <v>0</v>
-      </c>
-      <c r="O651" t="inlineStr"/>
-      <c r="P651" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O651" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P651" t="inlineStr">
+        <is>
+          <t>Serial number 650 does not have any valid parent or spouse relationship with other voters in house number 13-127 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="652">
       <c r="A652" t="n">
@@ -46532,18 +46868,10 @@
         </is>
       </c>
       <c r="N656" t="n">
-        <v>1</v>
-      </c>
-      <c r="O656" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P656" t="inlineStr">
-        <is>
-          <t>Serial number 655 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O656" t="inlineStr"/>
+      <c r="P656" t="inlineStr"/>
     </row>
     <row r="657">
       <c r="A657" t="n">
@@ -47240,10 +47568,18 @@
         </is>
       </c>
       <c r="N666" t="n">
-        <v>0</v>
-      </c>
-      <c r="O666" t="inlineStr"/>
-      <c r="P666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O666" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P666" t="inlineStr">
+        <is>
+          <t>Serial number 665 does not have any valid parent or spouse relationship with other voters in house number 16 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="667">
       <c r="A667" t="n">
@@ -47990,10 +48326,18 @@
         </is>
       </c>
       <c r="N677" t="n">
-        <v>0</v>
-      </c>
-      <c r="O677" t="inlineStr"/>
-      <c r="P677" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O677" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P677" t="inlineStr">
+        <is>
+          <t>Serial number 676 does not have any valid parent or spouse relationship with other voters in house number 16 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="678">
       <c r="A678" t="n">
@@ -49348,16 +49692,16 @@
         </is>
       </c>
       <c r="N696" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O696" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P696" t="inlineStr">
         <is>
-          <t>Serial number 695 is the only voter listed under house number 20F on street '2-West Street Ward No-10' in booth 247. | Serial number 695 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 695 is the only voter listed under house number 20F on street '2-West Street Ward No-10' in booth 247.</t>
         </is>
       </c>
     </row>
@@ -50870,18 +51214,10 @@
         </is>
       </c>
       <c r="N717" t="n">
-        <v>1</v>
-      </c>
-      <c r="O717" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P717" t="inlineStr">
-        <is>
-          <t>Serial number 716 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O717" t="inlineStr"/>
+      <c r="P717" t="inlineStr"/>
     </row>
     <row r="718">
       <c r="A718" t="n">
@@ -50944,10 +51280,18 @@
         </is>
       </c>
       <c r="N718" t="n">
-        <v>0</v>
-      </c>
-      <c r="O718" t="inlineStr"/>
-      <c r="P718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O718" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P718" t="inlineStr">
+        <is>
+          <t>Serial number 717 does not have any valid parent or spouse relationship with other voters in house number 23 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="719">
       <c r="A719" t="n">
@@ -51834,10 +52178,18 @@
         </is>
       </c>
       <c r="N731" t="n">
-        <v>0</v>
-      </c>
-      <c r="O731" t="inlineStr"/>
-      <c r="P731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O731" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P731" t="inlineStr">
+        <is>
+          <t>Serial number 730 does not have any valid parent or spouse relationship with other voters in house number 26 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="732">
       <c r="A732" t="n">
@@ -52690,10 +53042,18 @@
         </is>
       </c>
       <c r="N743" t="n">
-        <v>0</v>
-      </c>
-      <c r="O743" t="inlineStr"/>
-      <c r="P743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O743" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P743" t="inlineStr">
+        <is>
+          <t>Serial number 742 does not have any valid parent or spouse relationship with other voters in house number 31 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="744">
       <c r="A744" t="n">
@@ -54148,10 +54508,18 @@
         </is>
       </c>
       <c r="N764" t="n">
-        <v>0</v>
-      </c>
-      <c r="O764" t="inlineStr"/>
-      <c r="P764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O764" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P764" t="inlineStr">
+        <is>
+          <t>Serial number 763 does not have any valid parent or spouse relationship with other voters in house number 44 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="765">
       <c r="A765" t="n">
@@ -54214,10 +54582,18 @@
         </is>
       </c>
       <c r="N765" t="n">
-        <v>0</v>
-      </c>
-      <c r="O765" t="inlineStr"/>
-      <c r="P765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O765" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P765" t="inlineStr">
+        <is>
+          <t>Serial number 764 does not have any valid parent or spouse relationship with other voters in house number 44 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="766">
       <c r="A766" t="n">
@@ -54280,10 +54656,18 @@
         </is>
       </c>
       <c r="N766" t="n">
-        <v>0</v>
-      </c>
-      <c r="O766" t="inlineStr"/>
-      <c r="P766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O766" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P766" t="inlineStr">
+        <is>
+          <t>Serial number 765 does not have any valid parent or spouse relationship with other voters in house number 44 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="767">
       <c r="A767" t="n">
@@ -54478,10 +54862,18 @@
         </is>
       </c>
       <c r="N769" t="n">
-        <v>0</v>
-      </c>
-      <c r="O769" t="inlineStr"/>
-      <c r="P769" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O769" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P769" t="inlineStr">
+        <is>
+          <t>Serial number 768 does not have any valid parent or spouse relationship with other voters in house number 45 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="770">
       <c r="A770" t="n">
@@ -55630,10 +56022,18 @@
         </is>
       </c>
       <c r="N785" t="n">
-        <v>0</v>
-      </c>
-      <c r="O785" t="inlineStr"/>
-      <c r="P785" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O785" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P785" t="inlineStr">
+        <is>
+          <t>Serial number 784 does not have any valid parent or spouse relationship with other voters in house number 52 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="786">
       <c r="A786" t="n">
@@ -55696,10 +56096,18 @@
         </is>
       </c>
       <c r="N786" t="n">
-        <v>0</v>
-      </c>
-      <c r="O786" t="inlineStr"/>
-      <c r="P786" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O786" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P786" t="inlineStr">
+        <is>
+          <t>Serial number 785 does not have any valid parent or spouse relationship with other voters in house number 52 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="787">
       <c r="A787" t="n">
@@ -55902,10 +56310,18 @@
         </is>
       </c>
       <c r="N789" t="n">
-        <v>0</v>
-      </c>
-      <c r="O789" t="inlineStr"/>
-      <c r="P789" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O789" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P789" t="inlineStr">
+        <is>
+          <t>Serial number 788 does not have any valid parent or spouse relationship with other voters in house number 53 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="790">
       <c r="A790" t="n">
@@ -56166,10 +56582,18 @@
         </is>
       </c>
       <c r="N793" t="n">
-        <v>0</v>
-      </c>
-      <c r="O793" t="inlineStr"/>
-      <c r="P793" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O793" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P793" t="inlineStr">
+        <is>
+          <t>Serial number 792 does not have any valid parent or spouse relationship with other voters in house number 53 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="794">
       <c r="A794" t="n">
@@ -56430,10 +56854,18 @@
         </is>
       </c>
       <c r="N797" t="n">
-        <v>0</v>
-      </c>
-      <c r="O797" t="inlineStr"/>
-      <c r="P797" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O797" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P797" t="inlineStr">
+        <is>
+          <t>Serial number 796 does not have any valid parent or spouse relationship with other voters in house number 54 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="798">
       <c r="A798" t="n">
@@ -57410,16 +57842,16 @@
         </is>
       </c>
       <c r="N811" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O811" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P811" t="inlineStr">
         <is>
-          <t>Serial number 810 is the only voter listed under house number 58-69 on street '2-West Street Ward No-10' in booth 247. | Serial number 810 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 810 is the only voter listed under house number 58-69 on street '2-West Street Ward No-10' in booth 247.</t>
         </is>
       </c>
     </row>
@@ -59032,10 +59464,18 @@
         </is>
       </c>
       <c r="N834" t="n">
-        <v>0</v>
-      </c>
-      <c r="O834" t="inlineStr"/>
-      <c r="P834" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O834" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P834" t="inlineStr">
+        <is>
+          <t>Serial number 833 does not have any valid parent or spouse relationship with other voters in house number 74 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="835">
       <c r="A835" t="n">
@@ -60366,10 +60806,18 @@
         </is>
       </c>
       <c r="N853" t="n">
-        <v>0</v>
-      </c>
-      <c r="O853" t="inlineStr"/>
-      <c r="P853" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O853" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P853" t="inlineStr">
+        <is>
+          <t>Serial number 852 does not have any valid parent or spouse relationship with other voters in house number 80 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="854">
       <c r="A854" t="n">
@@ -60432,10 +60880,18 @@
         </is>
       </c>
       <c r="N854" t="n">
-        <v>0</v>
-      </c>
-      <c r="O854" t="inlineStr"/>
-      <c r="P854" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O854" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P854" t="inlineStr">
+        <is>
+          <t>Serial number 853 does not have any valid parent or spouse relationship with other voters in house number 80 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="855">
       <c r="A855" t="n">
@@ -60572,10 +61028,18 @@
         </is>
       </c>
       <c r="N856" t="n">
-        <v>0</v>
-      </c>
-      <c r="O856" t="inlineStr"/>
-      <c r="P856" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O856" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P856" t="inlineStr">
+        <is>
+          <t>Serial number 855 does not have any valid parent or spouse relationship with other voters in house number 81 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="857">
       <c r="A857" t="n">
@@ -60638,10 +61102,18 @@
         </is>
       </c>
       <c r="N857" t="n">
-        <v>0</v>
-      </c>
-      <c r="O857" t="inlineStr"/>
-      <c r="P857" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O857" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P857" t="inlineStr">
+        <is>
+          <t>Serial number 856 does not have any valid parent or spouse relationship with other voters in house number 81 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="858">
       <c r="A858" t="n">
@@ -60902,16 +61374,16 @@
         </is>
       </c>
       <c r="N861" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O861" t="inlineStr">
         <is>
-          <t>AGE_ZERO_OR_INVALID</t>
+          <t>ADOPTED_NO_RELATIVE, AGE_ZERO_OR_INVALID</t>
         </is>
       </c>
       <c r="P861" t="inlineStr">
         <is>
-          <t>Serial number 860 has invalid age value 0.</t>
+          <t>Serial number 860 does not have any valid parent or spouse relationship with other voters in house number 82 on street '2-West Street Ward No-10'. | Serial number 860 has invalid age value 0.</t>
         </is>
       </c>
     </row>
@@ -64104,16 +64576,16 @@
         </is>
       </c>
       <c r="N906" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O906" t="inlineStr">
         <is>
-          <t>SAME_NAME_IN_SAME_HOUSE</t>
+          <t>ADOPTED_NO_RELATIVE, SAME_NAME_IN_SAME_HOUSE</t>
         </is>
       </c>
       <c r="P906" t="inlineStr">
         <is>
-          <t>Multiple voters in house number 85F on street '2-West Street Ward No-10' share the same name as serial number 905.</t>
+          <t>Multiple voters in house number 85F on street '2-West Street Ward No-10' share the same name as serial number 905. | Serial number 905 does not have any valid parent or spouse relationship with other voters in house number 85F on street '2-West Street Ward No-10'.</t>
         </is>
       </c>
     </row>
@@ -64854,10 +65326,18 @@
         </is>
       </c>
       <c r="N917" t="n">
-        <v>0</v>
-      </c>
-      <c r="O917" t="inlineStr"/>
-      <c r="P917" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O917" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P917" t="inlineStr">
+        <is>
+          <t>Serial number 916 does not have any valid parent or spouse relationship with other voters in house number 88 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="918">
       <c r="A918" t="n">
@@ -64920,10 +65400,18 @@
         </is>
       </c>
       <c r="N918" t="n">
-        <v>0</v>
-      </c>
-      <c r="O918" t="inlineStr"/>
-      <c r="P918" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O918" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P918" t="inlineStr">
+        <is>
+          <t>Serial number 917 does not have any valid parent or spouse relationship with other voters in house number 88 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="919">
       <c r="A919" t="n">
@@ -65958,18 +66446,10 @@
         </is>
       </c>
       <c r="N933" t="n">
-        <v>1</v>
-      </c>
-      <c r="O933" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P933" t="inlineStr">
-        <is>
-          <t>Serial number 932 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O933" t="inlineStr"/>
+      <c r="P933" t="inlineStr"/>
     </row>
     <row r="934">
       <c r="A934" t="n">
@@ -66172,10 +66652,18 @@
         </is>
       </c>
       <c r="N936" t="n">
-        <v>0</v>
-      </c>
-      <c r="O936" t="inlineStr"/>
-      <c r="P936" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O936" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P936" t="inlineStr">
+        <is>
+          <t>Serial number 935 does not have any valid parent or spouse relationship with other voters in house number 101-79 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="937">
       <c r="A937" t="n">
@@ -66238,10 +66726,18 @@
         </is>
       </c>
       <c r="N937" t="n">
-        <v>0</v>
-      </c>
-      <c r="O937" t="inlineStr"/>
-      <c r="P937" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O937" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P937" t="inlineStr">
+        <is>
+          <t>Serial number 936 does not have any valid parent or spouse relationship with other voters in house number 101-79 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="938">
       <c r="A938" t="n">
@@ -66576,10 +67072,18 @@
         </is>
       </c>
       <c r="N942" t="n">
-        <v>0</v>
-      </c>
-      <c r="O942" t="inlineStr"/>
-      <c r="P942" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O942" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P942" t="inlineStr">
+        <is>
+          <t>Serial number 941 does not have any valid parent or spouse relationship with other voters in house number 105 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="943">
       <c r="A943" t="n">
@@ -66774,10 +67278,18 @@
         </is>
       </c>
       <c r="N945" t="n">
-        <v>0</v>
-      </c>
-      <c r="O945" t="inlineStr"/>
-      <c r="P945" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O945" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P945" t="inlineStr">
+        <is>
+          <t>Serial number 944 does not have any valid parent or spouse relationship with other voters in house number 106 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="946">
       <c r="A946" t="n">
@@ -66840,10 +67352,18 @@
         </is>
       </c>
       <c r="N946" t="n">
-        <v>0</v>
-      </c>
-      <c r="O946" t="inlineStr"/>
-      <c r="P946" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O946" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P946" t="inlineStr">
+        <is>
+          <t>Serial number 945 does not have any valid parent or spouse relationship with other voters in house number 106 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="947">
       <c r="A947" t="n">
@@ -67252,10 +67772,18 @@
         </is>
       </c>
       <c r="N952" t="n">
-        <v>0</v>
-      </c>
-      <c r="O952" t="inlineStr"/>
-      <c r="P952" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O952" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P952" t="inlineStr">
+        <is>
+          <t>Serial number 951 does not have any valid parent or spouse relationship with other voters in house number 109 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="953">
       <c r="A953" t="n">
@@ -67384,18 +67912,10 @@
         </is>
       </c>
       <c r="N954" t="n">
-        <v>1</v>
-      </c>
-      <c r="O954" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P954" t="inlineStr">
-        <is>
-          <t>Serial number 953 is the only voter listed under house number 109-774 on street '2-West Street Ward No-10' in booth 247.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O954" t="inlineStr"/>
+      <c r="P954" t="inlineStr"/>
     </row>
     <row r="955">
       <c r="A955" t="n">
@@ -67532,18 +68052,10 @@
         </is>
       </c>
       <c r="N956" t="n">
-        <v>1</v>
-      </c>
-      <c r="O956" t="inlineStr">
-        <is>
-          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
-        </is>
-      </c>
-      <c r="P956" t="inlineStr">
-        <is>
-          <t>Serial number 955 is the only voter listed under house number 109/774 on street '2-West Street Ward No-10' in booth 247.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O956" t="inlineStr"/>
+      <c r="P956" t="inlineStr"/>
     </row>
     <row r="957">
       <c r="A957" t="n">
@@ -67606,10 +68118,18 @@
         </is>
       </c>
       <c r="N957" t="n">
-        <v>0</v>
-      </c>
-      <c r="O957" t="inlineStr"/>
-      <c r="P957" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O957" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P957" t="inlineStr">
+        <is>
+          <t>Serial number 956 does not have any valid parent or spouse relationship with other voters in house number 110 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="958">
       <c r="A958" t="n">
@@ -67746,10 +68266,18 @@
         </is>
       </c>
       <c r="N959" t="n">
-        <v>0</v>
-      </c>
-      <c r="O959" t="inlineStr"/>
-      <c r="P959" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O959" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P959" t="inlineStr">
+        <is>
+          <t>Serial number 958 does not have any valid parent or spouse relationship with other voters in house number 110 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="960">
       <c r="A960" t="n">
@@ -68538,10 +69066,18 @@
         </is>
       </c>
       <c r="N971" t="n">
-        <v>0</v>
-      </c>
-      <c r="O971" t="inlineStr"/>
-      <c r="P971" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O971" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P971" t="inlineStr">
+        <is>
+          <t>Serial number 970 does not have any valid parent or spouse relationship with other voters in house number 116 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="972">
       <c r="A972" t="n">
@@ -69560,10 +70096,18 @@
         </is>
       </c>
       <c r="N986" t="n">
-        <v>0</v>
-      </c>
-      <c r="O986" t="inlineStr"/>
-      <c r="P986" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O986" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P986" t="inlineStr">
+        <is>
+          <t>Serial number 985 does not have any valid parent or spouse relationship with other voters in house number 122 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="987">
       <c r="A987" t="n">
@@ -70178,10 +70722,18 @@
         </is>
       </c>
       <c r="N995" t="n">
-        <v>0</v>
-      </c>
-      <c r="O995" t="inlineStr"/>
-      <c r="P995" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O995" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P995" t="inlineStr">
+        <is>
+          <t>Serial number 994 does not have any valid parent or spouse relationship with other voters in house number 123 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="996">
       <c r="A996" t="n">
@@ -71522,10 +72074,18 @@
         </is>
       </c>
       <c r="N1015" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1015" t="inlineStr"/>
-      <c r="P1015" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1015" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1015" t="inlineStr">
+        <is>
+          <t>Serial number 1014 does not have any valid parent or spouse relationship with other voters in house number 130 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1016">
       <c r="A1016" t="n">
@@ -71654,16 +72214,16 @@
         </is>
       </c>
       <c r="N1017" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O1017" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID, ORPHAN_ONLY_PERSON_IN_HOME</t>
+          <t>ORPHAN_ONLY_PERSON_IN_HOME</t>
         </is>
       </c>
       <c r="P1017" t="inlineStr">
         <is>
-          <t>Serial number 1016 is the only voter listed under house number 131-85A5 on street '2-West Street Ward No-10' in booth 247. | Serial number 1016 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1016 is the only voter listed under house number 131-85A5 on street '2-West Street Ward No-10' in booth 247.</t>
         </is>
       </c>
     </row>
@@ -73194,18 +73754,10 @@
         </is>
       </c>
       <c r="N1039" t="n">
-        <v>1</v>
-      </c>
-      <c r="O1039" t="inlineStr">
-        <is>
-          <t>INVALID_EPIC_ID</t>
-        </is>
-      </c>
-      <c r="P1039" t="inlineStr">
-        <is>
-          <t>Serial number 1038 was flagged due to rule: INVALID_EPIC_ID.</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="O1039" t="inlineStr"/>
+      <c r="P1039" t="inlineStr"/>
     </row>
     <row r="1040">
       <c r="A1040" t="n">
@@ -75146,10 +75698,18 @@
         </is>
       </c>
       <c r="N1067" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1067" t="inlineStr"/>
-      <c r="P1067" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1067" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1067" t="inlineStr">
+        <is>
+          <t>Serial number 1066 does not have any valid parent or spouse relationship with other voters in house number 888 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1068">
       <c r="A1068" t="n">
@@ -75212,10 +75772,18 @@
         </is>
       </c>
       <c r="N1068" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1068" t="inlineStr"/>
-      <c r="P1068" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="O1068" t="inlineStr">
+        <is>
+          <t>ADOPTED_NO_RELATIVE</t>
+        </is>
+      </c>
+      <c r="P1068" t="inlineStr">
+        <is>
+          <t>Serial number 1067 does not have any valid parent or spouse relationship with other voters in house number 888 on street '2-West Street Ward No-10'.</t>
+        </is>
+      </c>
     </row>
     <row r="1069">
       <c r="A1069" t="n">
@@ -75278,16 +75846,16 @@
         </is>
       </c>
       <c r="N1069" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O1069" t="inlineStr">
         <is>
-          <t>INVALID_EPIC_ID</t>
+          <t>ADOPTED_NO_RELATIVE, INVALID_EPIC_ID</t>
         </is>
       </c>
       <c r="P1069" t="inlineStr">
         <is>
-          <t>Serial number 1068 was flagged due to rule: INVALID_EPIC_ID.</t>
+          <t>Serial number 1068 does not have any valid parent or spouse relationship with other voters in house number 888-2 on street '2-West Street Ward No-10'. | Serial number 1068 was flagged due to rule: INVALID_EPIC_ID.</t>
         </is>
       </c>
     </row>
